--- a/Data/metadaten_grafiken_kantonale_Abstimmungen.xlsx
+++ b/Data/metadaten_grafiken_kantonale_Abstimmungen.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/20240303_LENA_Abstimmungen/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sw\OneDrive\LENA_Project\20240303_LENA_Abstimmungen\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_EE94166AC3574AFC124848E8A2649C43032B358E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FB127AC-F98B-4F2B-A672-3D768A4F6EA0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BC0804-2760-42B6-ADBF-729223CB7462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="179">
   <si>
     <t>Typ</t>
   </si>
@@ -551,6 +551,39 @@
   </si>
   <si>
     <t>&lt;div style="min-height:452px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/47ROI/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/47ROI/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>BE_Kantonsverfassung</t>
+  </si>
+  <si>
+    <t>Änderung der Kantonsverfassung (Einführung dringliche Gesetzgebung)</t>
+  </si>
+  <si>
+    <t>Introduction de la procédure législative urgente</t>
+  </si>
+  <si>
+    <t>AQkF4</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/AQkF4/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Änderung der Kantonsverfassung (Einführung dringliche Gesetzgebung)" aria-label="Karte" id="datawrapper-chart-AQkF4" src="https://datawrapper.dwcdn.net/AQkF4/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="680" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:680px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/AQkF4/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/AQkF4/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>qDn16</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/qDn16/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Introduction de la procédure législative urgente" aria-label="Carte" id="datawrapper-chart-qDn16" src="https://datawrapper.dwcdn.net/qDn16/2/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="657" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:657px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/qDn16/embed.js?v=2" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/qDn16/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -600,9 +633,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -941,23 +975,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -983,7 +1017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1009,7 +1043,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1035,653 +1069,705 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" t="s">
-        <v>89</v>
+        <v>171</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="H4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="D5" t="s">
         <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" t="s">
-        <v>90</v>
+        <v>175</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="H5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
         <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
         <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
         <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
         <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
         <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
         <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
         <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H24" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
         <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H25" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H26" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H27" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
       <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>57</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D30" t="s">
         <v>59</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E30" t="s">
         <v>86</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F30" t="s">
         <v>113</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G30" t="s">
         <v>140</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H30" t="s">
         <v>167</v>
       </c>
     </row>

--- a/Data/metadaten_grafiken_kantonale_Abstimmungen.xlsx
+++ b/Data/metadaten_grafiken_kantonale_Abstimmungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sw\OneDrive\LENA_Project\20240303_LENA_Abstimmungen\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BC0804-2760-42B6-ADBF-729223CB7462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533EBDDD-CFC8-45B4-8467-B6AF7B319238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,9 +64,6 @@
     <t>GE_PPE_Droit_Superficie</t>
   </si>
   <si>
-    <t>GE_PPE</t>
-  </si>
-  <si>
     <t>LU_Ausbildungszentrum</t>
   </si>
   <si>
@@ -584,6 +581,9 @@
   </si>
   <si>
     <t>&lt;div style="min-height:657px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/qDn16/embed.js?v=2" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/qDn16/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>GE_PPE_PAV</t>
   </si>
 </sst>
 </file>
@@ -633,10 +633,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -978,7 +977,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,22 +1024,22 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1051,22 +1050,22 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1074,25 +1073,25 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" t="s">
         <v>168</v>
       </c>
-      <c r="C4" t="s">
-        <v>169</v>
-      </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" t="s">
         <v>171</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" t="s">
         <v>172</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>173</v>
-      </c>
-      <c r="H4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1100,25 +1099,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" t="s">
         <v>175</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" t="s">
         <v>176</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>177</v>
-      </c>
-      <c r="H5" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1129,22 +1128,22 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1155,22 +1154,22 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1181,22 +1180,22 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1204,25 +1203,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1230,25 +1229,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1256,25 +1255,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1282,25 +1281,25 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1308,25 +1307,25 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1334,25 +1333,25 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1360,25 +1359,25 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1386,25 +1385,25 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1412,25 +1411,25 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1438,25 +1437,25 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1464,25 +1463,25 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1490,25 +1489,25 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1516,25 +1515,25 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1542,25 +1541,25 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1568,25 +1567,25 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1594,25 +1593,25 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1620,25 +1619,25 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1646,25 +1645,25 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1672,25 +1671,25 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1698,25 +1697,25 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1724,25 +1723,25 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1750,25 +1749,25 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
